--- a/LISTA ASISTENCIA 11 SUR 2022.xlsx
+++ b/LISTA ASISTENCIA 11 SUR 2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="75">
   <si>
     <t>Abasto de 4 Carnes S.A. de C.V.</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>Bermudez Cortés Jessica Nelsy</t>
+  </si>
+  <si>
+    <t>Serrano Arellano Jose Luis</t>
   </si>
 </sst>
 </file>
@@ -664,6 +667,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,12 +716,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -731,66 +734,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Cómo borrar texto hacia adelante en nuestro Mac o iPad"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="238125" y="10982325"/>
-          <a:ext cx="4286250" cy="2476500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1056,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,55 +1019,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1134,9 +1077,9 @@
         <v>2</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="6"/>
     </row>
@@ -1155,9 +1098,9 @@
         <v>3</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="9"/>
     </row>
@@ -1166,34 +1109,34 @@
       <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="22">
         <v>44732</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="37">
+      <c r="D5" s="23"/>
+      <c r="E5" s="22">
         <v>44733</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="37">
+      <c r="F5" s="23"/>
+      <c r="G5" s="22">
         <v>44734</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="37">
+      <c r="H5" s="23"/>
+      <c r="I5" s="22">
         <v>44735</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="37">
+      <c r="J5" s="23"/>
+      <c r="K5" s="22">
         <v>44736</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="37">
+      <c r="L5" s="23"/>
+      <c r="M5" s="22">
         <v>44737</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="37">
+      <c r="N5" s="23"/>
+      <c r="O5" s="22">
         <v>44738</v>
       </c>
-      <c r="P5" s="38"/>
+      <c r="P5" s="23"/>
       <c r="Q5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>5</v>
@@ -1866,51 +1809,102 @@
         <v>14</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="21"/>
+    </row>
+    <row r="20" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>15</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="21"/>
+      <c r="C20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1927,9 +1921,8 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
   </mergeCells>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.17" header="0.31496062992125984" footer="0.22"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/LISTA ASISTENCIA 11 SUR 2022.xlsx
+++ b/LISTA ASISTENCIA 11 SUR 2022.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="74">
   <si>
     <t>Abasto de 4 Carnes S.A. de C.V.</t>
   </si>
@@ -263,13 +263,10 @@
     <t>Semana 52</t>
   </si>
   <si>
-    <t>Del 20 de Mayo  al 26 Mayo  2022</t>
-  </si>
-  <si>
     <t>Bermudez Cortés Jessica Nelsy</t>
   </si>
   <si>
-    <t>Serrano Arellano Jose Luis</t>
+    <t>Del 27 de Junio  al 03 Julio  2022</t>
   </si>
 </sst>
 </file>
@@ -999,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1060,7 @@
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -1107,34 +1104,34 @@
     <row r="5" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="22">
-        <v>44732</v>
+        <v>44739</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="22">
-        <v>44733</v>
+        <v>44740</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="22">
-        <v>44734</v>
+        <v>44741</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="22">
-        <v>44735</v>
+        <v>44742</v>
       </c>
       <c r="J5" s="23"/>
       <c r="K5" s="22">
-        <v>44736</v>
+        <v>44743</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="22">
-        <v>44737</v>
+        <v>44744</v>
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="22">
-        <v>44738</v>
+        <v>44745</v>
       </c>
       <c r="P5" s="23"/>
       <c r="Q5" s="11" t="s">
@@ -1197,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>5</v>
@@ -1758,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>5</v>
@@ -1809,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>5</v>
@@ -1854,57 +1851,6 @@
         <v>6</v>
       </c>
       <c r="Q19" s="21"/>
-    </row>
-    <row r="20" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>15</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/LISTA ASISTENCIA 11 SUR 2022.xlsx
+++ b/LISTA ASISTENCIA 11 SUR 2022.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="72">
   <si>
     <t>Abasto de 4 Carnes S.A. de C.V.</t>
   </si>
@@ -68,13 +68,7 @@
     <t>Firma</t>
   </si>
   <si>
-    <t>Manzano Luis Ismael</t>
-  </si>
-  <si>
     <t>Romero Meza Karla</t>
-  </si>
-  <si>
-    <t>Juárez García Arturo</t>
   </si>
   <si>
     <t>Martínez Hernández Víctor Adolfo</t>
@@ -996,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1054,7 @@
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -1104,7 +1098,7 @@
     <row r="5" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="22">
         <v>44739</v>
@@ -1143,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>5</v>
@@ -1194,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>5</v>
@@ -1245,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>5</v>
@@ -1296,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>5</v>
@@ -1347,7 +1341,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>5</v>
@@ -1398,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>5</v>
@@ -1444,114 +1438,114 @@
       </c>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>7</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="13" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>8</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="6"/>
+      <c r="B13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>9</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>5</v>
@@ -1602,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>5</v>
@@ -1653,7 +1647,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>5</v>
@@ -1704,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>5</v>
@@ -1749,108 +1743,6 @@
         <v>6</v>
       </c>
       <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>13</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>14</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1896,262 +1788,262 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/LISTA ASISTENCIA 11 SUR 2022.xlsx
+++ b/LISTA ASISTENCIA 11 SUR 2022.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="74">
   <si>
     <t>Abasto de 4 Carnes S.A. de C.V.</t>
   </si>
@@ -260,19 +260,26 @@
     <t>Bermudez Cortés Jessica Nelsy</t>
   </si>
   <si>
-    <t>Del 27 de Junio  al 03 Julio  2022</t>
+    <t>Cuellar de la Cruz Rubi Estefani</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>Al</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dddd\-dd"/>
+    <numFmt numFmtId="167" formatCode="dddd\ dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +349,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -601,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -658,19 +673,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,6 +716,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -990,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,67 +1037,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="38">
+        <v>44767</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="40">
+        <v>44772</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="2"/>
       <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="6"/>
     </row>
@@ -1089,45 +1122,45 @@
         <v>3</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="22">
-        <v>44739</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="22">
-        <v>44740</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22">
-        <v>44741</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="22">
-        <v>44742</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="22">
-        <v>44743</v>
-      </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="22">
-        <v>44744</v>
-      </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="22">
-        <v>44745</v>
-      </c>
-      <c r="P5" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="C5" s="23">
+        <v>44767</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23">
+        <v>44768</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23">
+        <v>44769</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="23">
+        <v>44770</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23">
+        <v>44771</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="23">
+        <v>44772</v>
+      </c>
+      <c r="N5" s="24"/>
+      <c r="O5" s="23">
+        <v>44773</v>
+      </c>
+      <c r="P5" s="24"/>
       <c r="Q5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>5</v>
@@ -1341,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>5</v>
@@ -1392,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>5</v>
@@ -1438,63 +1471,63 @@
       </c>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>7</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="21"/>
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>8</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>5</v>
@@ -1545,7 +1578,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>5</v>
@@ -1596,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>5</v>
@@ -1647,7 +1680,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>5</v>
@@ -1698,56 +1731,106 @@
         <v>12</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="21"/>
+    </row>
+    <row r="18" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>13</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="21"/>
+      <c r="C18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B3:E3"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="M3:O3"/>
@@ -1758,6 +1841,8 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.17" header="0.31496062992125984" footer="0.22"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>

--- a/LISTA ASISTENCIA 11 SUR 2022.xlsx
+++ b/LISTA ASISTENCIA 11 SUR 2022.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="75">
   <si>
     <t>Abasto de 4 Carnes S.A. de C.V.</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Báez Aveyaira Misael</t>
   </si>
   <si>
-    <t>García Aguilar Angelica</t>
-  </si>
-  <si>
     <t>Cortes Cristopher Alexis</t>
   </si>
   <si>
@@ -267,6 +264,12 @@
   </si>
   <si>
     <t>Al</t>
+  </si>
+  <si>
+    <t>Juarez Garcia Arturo</t>
+  </si>
+  <si>
+    <t>Ramirez Vivianco Rodolfo</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dddd\-dd"/>
-    <numFmt numFmtId="167" formatCode="dddd\ dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="dddd\ dd\ mmmm\ yyyy"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -676,6 +679,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,22 +724,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1017,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,62 +1040,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="38">
-        <v>44767</v>
+        <v>44774</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="39"/>
-      <c r="F3" s="37" t="s">
-        <v>73</v>
+      <c r="F3" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="G3" s="40">
-        <v>44772</v>
+        <v>44780</v>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="42"/>
@@ -1101,9 +1104,9 @@
         <v>2</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="6"/>
     </row>
@@ -1122,9 +1125,9 @@
         <v>3</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="9"/>
     </row>
@@ -1133,34 +1136,34 @@
       <c r="B5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="23">
-        <v>44767</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23">
-        <v>44768</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23">
-        <v>44769</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23">
-        <v>44770</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23">
-        <v>44771</v>
-      </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23">
-        <v>44772</v>
-      </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23">
-        <v>44773</v>
-      </c>
-      <c r="P5" s="24"/>
+      <c r="C5" s="24">
+        <v>44774</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24">
+        <v>44775</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="24">
+        <v>44776</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="24">
+        <v>44777</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="24">
+        <v>44778</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="24">
+        <v>44779</v>
+      </c>
+      <c r="N5" s="25"/>
+      <c r="O5" s="24">
+        <v>44780</v>
+      </c>
+      <c r="P5" s="25"/>
       <c r="Q5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>5</v>
@@ -1272,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>5</v>
@@ -1323,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>5</v>
@@ -1374,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>5</v>
@@ -1476,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>5</v>
@@ -1578,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>5</v>
@@ -1629,7 +1632,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>5</v>
@@ -1680,7 +1683,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>5</v>
@@ -1731,7 +1734,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>5</v>
@@ -1782,51 +1785,102 @@
         <v>13</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="21"/>
+      <c r="C19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1873,262 +1927,262 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
